--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>F2rl2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.22601970943484</v>
+        <v>0.2635116666666666</v>
       </c>
       <c r="N2">
-        <v>2.22601970943484</v>
+        <v>0.790535</v>
       </c>
       <c r="O2">
-        <v>0.5592856168477635</v>
+        <v>0.05023160637981145</v>
       </c>
       <c r="P2">
-        <v>0.5592856168477635</v>
+        <v>0.05185565834321258</v>
       </c>
       <c r="Q2">
-        <v>1.290912629185154</v>
+        <v>0.2488229115061111</v>
       </c>
       <c r="R2">
-        <v>1.290912629185154</v>
+        <v>2.239406203555</v>
       </c>
       <c r="S2">
-        <v>0.1987073628753439</v>
+        <v>0.02071148824159041</v>
       </c>
       <c r="T2">
-        <v>0.1987073628753439</v>
+        <v>0.02284432407751663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.75409285269593</v>
+        <v>2.682987</v>
       </c>
       <c r="N3">
-        <v>1.75409285269593</v>
+        <v>8.048961</v>
       </c>
       <c r="O3">
-        <v>0.4407143831522365</v>
+        <v>0.5114412906682863</v>
       </c>
       <c r="P3">
-        <v>0.4407143831522365</v>
+        <v>0.5279768405369056</v>
       </c>
       <c r="Q3">
-        <v>1.017232959219166</v>
+        <v>2.533431044317</v>
       </c>
       <c r="R3">
-        <v>1.017232959219166</v>
+        <v>22.800879398853</v>
       </c>
       <c r="S3">
-        <v>0.156580448735645</v>
+        <v>0.2108773945600383</v>
       </c>
       <c r="T3">
-        <v>0.156580448735645</v>
+        <v>0.2325932103844768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.660669065824854</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.660669065824854</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.4047589282027066</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.4047589282027066</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.22601970943484</v>
+        <v>1.806547333333333</v>
       </c>
       <c r="N4">
-        <v>2.22601970943484</v>
+        <v>5.419642</v>
       </c>
       <c r="O4">
-        <v>0.5592856168477635</v>
+        <v>0.3443709939009584</v>
       </c>
       <c r="P4">
-        <v>0.5592856168477635</v>
+        <v>0.3555049477815977</v>
       </c>
       <c r="Q4">
-        <v>1.470662361940029</v>
+        <v>1.705846169696222</v>
       </c>
       <c r="R4">
-        <v>1.470662361940029</v>
+        <v>15.352615527266</v>
       </c>
       <c r="S4">
-        <v>0.2263758468344904</v>
+        <v>0.1419909954102343</v>
       </c>
       <c r="T4">
-        <v>0.2263758468344904</v>
+        <v>0.1566130003505479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.660669065824854</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H5">
-        <v>0.660669065824854</v>
+        <v>2.832773</v>
       </c>
       <c r="I5">
-        <v>0.4047589282027066</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J5">
-        <v>0.4047589282027066</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.75409285269593</v>
+        <v>0.4928875</v>
       </c>
       <c r="N5">
-        <v>1.75409285269593</v>
+        <v>0.985775</v>
       </c>
       <c r="O5">
-        <v>0.4407143831522365</v>
+        <v>0.09395610905094393</v>
       </c>
       <c r="P5">
-        <v>0.4407143831522365</v>
+        <v>0.06466255333828405</v>
       </c>
       <c r="Q5">
-        <v>1.158874886360673</v>
+        <v>0.4654128006791666</v>
       </c>
       <c r="R5">
-        <v>1.158874886360673</v>
+        <v>2.792476804075</v>
       </c>
       <c r="S5">
-        <v>0.1783830813682162</v>
+        <v>0.03873996847961278</v>
       </c>
       <c r="T5">
-        <v>0.1783830813682162</v>
+        <v>0.02848623219403816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.39166448274001</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H6">
-        <v>0.39166448274001</v>
+        <v>2.048396</v>
       </c>
       <c r="I6">
-        <v>0.2399532601863045</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J6">
-        <v>0.2399532601863045</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.22601970943484</v>
+        <v>0.2635116666666666</v>
       </c>
       <c r="N6">
-        <v>2.22601970943484</v>
+        <v>0.790535</v>
       </c>
       <c r="O6">
-        <v>0.5592856168477635</v>
+        <v>0.05023160637981145</v>
       </c>
       <c r="P6">
-        <v>0.5592856168477635</v>
+        <v>0.05185565834321258</v>
       </c>
       <c r="Q6">
-        <v>0.871852858064864</v>
+        <v>0.1799254146511111</v>
       </c>
       <c r="R6">
-        <v>0.871852858064864</v>
+        <v>1.61932873186</v>
       </c>
       <c r="S6">
-        <v>0.1342024071379292</v>
+        <v>0.01497660760961815</v>
       </c>
       <c r="T6">
-        <v>0.1342024071379292</v>
+        <v>0.01651887463735667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6827986666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.048396</v>
+      </c>
+      <c r="I7">
+        <v>0.2981510783544719</v>
+      </c>
+      <c r="J7">
+        <v>0.3185549111733306</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.682987</v>
+      </c>
+      <c r="N7">
+        <v>8.048961</v>
+      </c>
+      <c r="O7">
+        <v>0.5114412906682863</v>
+      </c>
+      <c r="P7">
+        <v>0.5279768405369056</v>
+      </c>
+      <c r="Q7">
+        <v>1.831939946284</v>
+      </c>
+      <c r="R7">
+        <v>16.487459516556</v>
+      </c>
+      <c r="S7">
+        <v>0.1524867723277524</v>
+      </c>
+      <c r="T7">
+        <v>0.1681896155388097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6827986666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.048396</v>
+      </c>
+      <c r="I8">
+        <v>0.2981510783544719</v>
+      </c>
+      <c r="J8">
+        <v>0.3185549111733306</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.806547333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.419642</v>
+      </c>
+      <c r="O8">
+        <v>0.3443709939009584</v>
+      </c>
+      <c r="P8">
+        <v>0.3555049477815977</v>
+      </c>
+      <c r="Q8">
+        <v>1.233508110470222</v>
+      </c>
+      <c r="R8">
+        <v>11.101572994232</v>
+      </c>
+      <c r="S8">
+        <v>0.102674583185572</v>
+      </c>
+      <c r="T8">
+        <v>0.1132478470622464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H7">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I7">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J7">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.75409285269593</v>
-      </c>
-      <c r="N7">
-        <v>1.75409285269593</v>
-      </c>
-      <c r="O7">
-        <v>0.4407143831522365</v>
-      </c>
-      <c r="P7">
-        <v>0.4407143831522365</v>
-      </c>
-      <c r="Q7">
-        <v>0.6870158698291</v>
-      </c>
-      <c r="R7">
-        <v>0.6870158698291</v>
-      </c>
-      <c r="S7">
-        <v>0.1057508530483753</v>
-      </c>
-      <c r="T7">
-        <v>0.1057508530483753</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6827986666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.048396</v>
+      </c>
+      <c r="I9">
+        <v>0.2981510783544719</v>
+      </c>
+      <c r="J9">
+        <v>0.3185549111733306</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.4928875</v>
+      </c>
+      <c r="N9">
+        <v>0.985775</v>
+      </c>
+      <c r="O9">
+        <v>0.09395610905094393</v>
+      </c>
+      <c r="P9">
+        <v>0.06466255333828405</v>
+      </c>
+      <c r="Q9">
+        <v>0.3365429278166667</v>
+      </c>
+      <c r="R9">
+        <v>2.0192575669</v>
+      </c>
+      <c r="S9">
+        <v>0.02801311523152928</v>
+      </c>
+      <c r="T9">
+        <v>0.02059857393491783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073199</v>
+      </c>
+      <c r="H10">
+        <v>0.219597</v>
+      </c>
+      <c r="I10">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J10">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2635116666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.790535</v>
+      </c>
+      <c r="O10">
+        <v>0.05023160637981145</v>
+      </c>
+      <c r="P10">
+        <v>0.05185565834321258</v>
+      </c>
+      <c r="Q10">
+        <v>0.01928879048833333</v>
+      </c>
+      <c r="R10">
+        <v>0.173599114395</v>
+      </c>
+      <c r="S10">
+        <v>0.001605557763854898</v>
+      </c>
+      <c r="T10">
+        <v>0.001770895526909646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.073199</v>
+      </c>
+      <c r="H11">
+        <v>0.219597</v>
+      </c>
+      <c r="I11">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J11">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.682987</v>
+      </c>
+      <c r="N11">
+        <v>8.048961</v>
+      </c>
+      <c r="O11">
+        <v>0.5114412906682863</v>
+      </c>
+      <c r="P11">
+        <v>0.5279768405369056</v>
+      </c>
+      <c r="Q11">
+        <v>0.196391965413</v>
+      </c>
+      <c r="R11">
+        <v>1.767527688717</v>
+      </c>
+      <c r="S11">
+        <v>0.01634724816044234</v>
+      </c>
+      <c r="T11">
+        <v>0.0180306615534672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.073199</v>
+      </c>
+      <c r="H12">
+        <v>0.219597</v>
+      </c>
+      <c r="I12">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J12">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.806547333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.419642</v>
+      </c>
+      <c r="O12">
+        <v>0.3443709939009584</v>
+      </c>
+      <c r="P12">
+        <v>0.3555049477815977</v>
+      </c>
+      <c r="Q12">
+        <v>0.1322374582526667</v>
+      </c>
+      <c r="R12">
+        <v>1.190137124274</v>
+      </c>
+      <c r="S12">
+        <v>0.01100716387056119</v>
+      </c>
+      <c r="T12">
+        <v>0.01214066394941609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073199</v>
+      </c>
+      <c r="H13">
+        <v>0.219597</v>
+      </c>
+      <c r="I13">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J13">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.4928875</v>
+      </c>
+      <c r="N13">
+        <v>0.985775</v>
+      </c>
+      <c r="O13">
+        <v>0.09395610905094393</v>
+      </c>
+      <c r="P13">
+        <v>0.06466255333828405</v>
+      </c>
+      <c r="Q13">
+        <v>0.0360788721125</v>
+      </c>
+      <c r="R13">
+        <v>0.216473232675</v>
+      </c>
+      <c r="S13">
+        <v>0.003003128333338933</v>
+      </c>
+      <c r="T13">
+        <v>0.002208257114535544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.449404</v>
+      </c>
+      <c r="I14">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J14">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2635116666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.790535</v>
+      </c>
+      <c r="O14">
+        <v>0.05023160637981145</v>
+      </c>
+      <c r="P14">
+        <v>0.05185565834321258</v>
+      </c>
+      <c r="Q14">
+        <v>0.03947439901555556</v>
+      </c>
+      <c r="R14">
+        <v>0.35526959114</v>
+      </c>
+      <c r="S14">
+        <v>0.003285764747730827</v>
+      </c>
+      <c r="T14">
+        <v>0.003624127530773657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.449404</v>
+      </c>
+      <c r="I15">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J15">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.682987</v>
+      </c>
+      <c r="N15">
+        <v>8.048961</v>
+      </c>
+      <c r="O15">
+        <v>0.5114412906682863</v>
+      </c>
+      <c r="P15">
+        <v>0.5279768405369056</v>
+      </c>
+      <c r="Q15">
+        <v>0.401915029916</v>
+      </c>
+      <c r="R15">
+        <v>3.617235269244</v>
+      </c>
+      <c r="S15">
+        <v>0.03345454952615669</v>
+      </c>
+      <c r="T15">
+        <v>0.03689964537208784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.449404</v>
+      </c>
+      <c r="I16">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J16">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.806547333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.419642</v>
+      </c>
+      <c r="O16">
+        <v>0.3443709939009584</v>
+      </c>
+      <c r="P16">
+        <v>0.3555049477815977</v>
+      </c>
+      <c r="Q16">
+        <v>0.2706231992631111</v>
+      </c>
+      <c r="R16">
+        <v>2.435608793368</v>
+      </c>
+      <c r="S16">
+        <v>0.02252609767932021</v>
+      </c>
+      <c r="T16">
+        <v>0.02484579908433808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.449404</v>
+      </c>
+      <c r="I17">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J17">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.4928875</v>
+      </c>
+      <c r="N17">
+        <v>0.985775</v>
+      </c>
+      <c r="O17">
+        <v>0.09395610905094393</v>
+      </c>
+      <c r="P17">
+        <v>0.06466255333828405</v>
+      </c>
+      <c r="Q17">
+        <v>0.07383520468333334</v>
+      </c>
+      <c r="R17">
+        <v>0.4430112281</v>
+      </c>
+      <c r="S17">
+        <v>0.0061458848960407</v>
+      </c>
+      <c r="T17">
+        <v>0.004519185509368214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.440053</v>
+      </c>
+      <c r="H18">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J18">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2635116666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.790535</v>
+      </c>
+      <c r="O18">
+        <v>0.05023160637981145</v>
+      </c>
+      <c r="P18">
+        <v>0.05185565834321258</v>
+      </c>
+      <c r="Q18">
+        <v>0.1159590994516666</v>
+      </c>
+      <c r="R18">
+        <v>0.69575459671</v>
+      </c>
+      <c r="S18">
+        <v>0.009652188017017163</v>
+      </c>
+      <c r="T18">
+        <v>0.00709743657065598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.440053</v>
+      </c>
+      <c r="H19">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J19">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.682987</v>
+      </c>
+      <c r="N19">
+        <v>8.048961</v>
+      </c>
+      <c r="O19">
+        <v>0.5114412906682863</v>
+      </c>
+      <c r="P19">
+        <v>0.5279768405369056</v>
+      </c>
+      <c r="Q19">
+        <v>1.180656478311</v>
+      </c>
+      <c r="R19">
+        <v>7.083938869866</v>
+      </c>
+      <c r="S19">
+        <v>0.09827532609389654</v>
+      </c>
+      <c r="T19">
+        <v>0.07226370768806407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.440053</v>
+      </c>
+      <c r="H20">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J20">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.806547333333333</v>
+      </c>
+      <c r="N20">
+        <v>5.419642</v>
+      </c>
+      <c r="O20">
+        <v>0.3443709939009584</v>
+      </c>
+      <c r="P20">
+        <v>0.3555049477815977</v>
+      </c>
+      <c r="Q20">
+        <v>0.7949765736753333</v>
+      </c>
+      <c r="R20">
+        <v>4.769859442052</v>
+      </c>
+      <c r="S20">
+        <v>0.06617215375527072</v>
+      </c>
+      <c r="T20">
+        <v>0.0486576373350492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.440053</v>
+      </c>
+      <c r="H21">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J21">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.4928875</v>
+      </c>
+      <c r="N21">
+        <v>0.985775</v>
+      </c>
+      <c r="O21">
+        <v>0.09395610905094393</v>
+      </c>
+      <c r="P21">
+        <v>0.06466255333828405</v>
+      </c>
+      <c r="Q21">
+        <v>0.2168966230375</v>
+      </c>
+      <c r="R21">
+        <v>0.8675864921499999</v>
+      </c>
+      <c r="S21">
+        <v>0.01805401211042224</v>
+      </c>
+      <c r="T21">
+        <v>0.008850304585424299</v>
       </c>
     </row>
   </sheetData>
